--- a/final_spreadsheet/Db serializability.xlsx
+++ b/final_spreadsheet/Db serializability.xlsx
@@ -8,65 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NUS\Sem2\Database Applications Design and Tuning - CS5421\Project\Serializability Proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEB0129-9C65-4DCF-A860-9CA044634814}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAFADD0-7331-472A-B798-C9E7D7AF25FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DA08248-4A14-4F70-9C34-4C56371C45FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$D$107:$D$126</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$E$107:$E$126</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$107:$D$126</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$E$107:$E$126</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$F$107:$F$126</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$G$107:$G$126</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$H$107:$H$126</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$I$107:$I$126</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$J$107:$J$126</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$K$107:$K$126</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$L$107:$L$126</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$M$107:$M$126</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$107:$F$126</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$D$107:$D$126</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$E$107:$E$126</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$F$107:$F$126</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$G$107:$G$126</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$H$107:$H$126</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$I$107:$I$126</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$J$107:$J$126</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$K$107:$K$126</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$L$107:$L$126</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$M$107:$M$126</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$G$107:$G$126</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$D$107:$D$126</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$E$107:$E$126</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$F$107:$F$126</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$G$107:$G$126</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$H$107:$H$126</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$I$107:$I$126</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$J$107:$J$126</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$K$107:$K$126</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$L$107:$L$126</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$M$107:$M$126</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$107:$H$126</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$D$107:$D$126</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$E$107:$E$126</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$F$107:$F$126</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$G$107:$G$126</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$H$107:$H$126</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$I$107:$I$126</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$J$107:$J$126</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$K$107:$K$126</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">Sheet1!$L$107:$L$126</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">Sheet1!$M$107:$M$126</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$I$107:$I$126</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$J$107:$J$126</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$K$107:$K$126</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$107:$L$126</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$M$107:$M$126</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -77,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="38">
   <si>
     <t>SERIALIZABLE</t>
   </si>
@@ -254,8 +202,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB909AB-1145-4475-BD0A-7450098FC18D}">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,77 +553,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="s">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5" t="s">
+      <c r="U2" s="6"/>
+      <c r="V2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="5"/>
+      <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2264,77 +2212,77 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="B27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5" t="s">
+      <c r="K27" s="6"/>
+      <c r="L27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5" t="s">
+      <c r="M27" s="6"/>
+      <c r="N27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5" t="s">
+      <c r="O27" s="6"/>
+      <c r="P27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5" t="s">
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5" t="s">
+      <c r="S27" s="6"/>
+      <c r="T27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5" t="s">
+      <c r="U27" s="6"/>
+      <c r="V27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="W27" s="5"/>
+      <c r="W27" s="6"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -2693,7 +2641,7 @@
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>14.552</v>
       </c>
       <c r="C33" s="4">
@@ -3923,77 +3871,77 @@
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
+      <c r="B52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5" t="s">
+      <c r="E52" s="6"/>
+      <c r="F52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5" t="s">
+      <c r="G52" s="6"/>
+      <c r="H52" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5" t="s">
+      <c r="I52" s="6"/>
+      <c r="J52" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5" t="s">
+      <c r="K52" s="6"/>
+      <c r="L52" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5" t="s">
+      <c r="M52" s="6"/>
+      <c r="N52" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5" t="s">
+      <c r="O52" s="6"/>
+      <c r="P52" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5" t="s">
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5" t="s">
+      <c r="S52" s="6"/>
+      <c r="T52" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5" t="s">
+      <c r="U52" s="6"/>
+      <c r="V52" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="W52" s="5"/>
+      <c r="W52" s="6"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
@@ -5582,77 +5530,77 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5" t="s">
+      <c r="B77" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5" t="s">
+      <c r="E77" s="6"/>
+      <c r="F77" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5" t="s">
+      <c r="G77" s="6"/>
+      <c r="H77" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="I77" s="6"/>
+      <c r="J77" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5" t="s">
+      <c r="K77" s="6"/>
+      <c r="L77" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5" t="s">
+      <c r="M77" s="6"/>
+      <c r="N77" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5" t="s">
+      <c r="O77" s="6"/>
+      <c r="P77" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5" t="s">
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5" t="s">
+      <c r="S77" s="6"/>
+      <c r="T77" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5" t="s">
+      <c r="U77" s="6"/>
+      <c r="V77" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="W77" s="5"/>
+      <c r="W77" s="6"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
@@ -7237,63 +7185,41 @@
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B105" s="5"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-      <c r="U105" s="5"/>
-      <c r="V105" s="5"/>
-      <c r="W105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+      <c r="T105" s="6"/>
+      <c r="U105" s="6"/>
+      <c r="V105" s="6"/>
+      <c r="W105" s="6"/>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C106" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M106" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
       <c r="O106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="S106" s="3"/>
@@ -7301,39 +7227,17 @@
       <c r="W106" s="3"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C107" s="4">
-        <v>15.766</v>
-      </c>
-      <c r="D107" s="4">
-        <v>2.9420000000000002</v>
-      </c>
-      <c r="E107" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="F107" s="4">
-        <v>2.089</v>
-      </c>
-      <c r="G107" s="4">
-        <v>1.4390000000000001</v>
-      </c>
-      <c r="H107" s="4">
-        <v>1.343</v>
-      </c>
-      <c r="I107" s="4">
-        <v>1.2430000000000001</v>
-      </c>
-      <c r="J107" s="4">
-        <v>1.107</v>
-      </c>
-      <c r="K107" s="4">
-        <v>1.042</v>
-      </c>
-      <c r="L107" s="4">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="M107" s="4">
-        <v>0.81499999999999995</v>
-      </c>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
       <c r="O107" s="4"/>
       <c r="Q107" s="4"/>
       <c r="S107" s="4"/>
@@ -7341,39 +7245,17 @@
       <c r="W107" s="4"/>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C108" s="4">
-        <v>13.648</v>
-      </c>
-      <c r="D108" s="4">
-        <v>4.4710000000000001</v>
-      </c>
-      <c r="E108" s="4">
-        <v>1.899</v>
-      </c>
-      <c r="F108" s="4">
-        <v>2.4889999999999999</v>
-      </c>
-      <c r="G108" s="4">
-        <v>1.6519999999999999</v>
-      </c>
-      <c r="H108" s="4">
-        <v>1.5349999999999999</v>
-      </c>
-      <c r="I108" s="4">
-        <v>1.206</v>
-      </c>
-      <c r="J108" s="4">
-        <v>1.1819999999999999</v>
-      </c>
-      <c r="K108" s="4">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="L108" s="4">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="M108" s="4">
-        <v>0.80100000000000005</v>
-      </c>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
       <c r="O108" s="4"/>
       <c r="Q108" s="4"/>
       <c r="S108" s="4"/>
@@ -7381,39 +7263,17 @@
       <c r="W108" s="4"/>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C109" s="4">
-        <v>14.827999999999999</v>
-      </c>
-      <c r="D109" s="4">
-        <v>2.258</v>
-      </c>
-      <c r="E109" s="4">
-        <v>1.7050000000000001</v>
-      </c>
-      <c r="F109" s="4">
-        <v>1.39</v>
-      </c>
-      <c r="G109" s="4">
-        <v>1.738</v>
-      </c>
-      <c r="H109" s="4">
-        <v>1.296</v>
-      </c>
-      <c r="I109" s="4">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="J109" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="K109" s="4">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="L109" s="4">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="M109" s="4">
-        <v>0.75800000000000001</v>
-      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
       <c r="O109" s="4"/>
       <c r="Q109" s="4"/>
       <c r="S109" s="4"/>
@@ -7421,39 +7281,17 @@
       <c r="W109" s="4"/>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C110" s="4">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D110" s="4">
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="E110" s="4">
-        <v>1.7210000000000001</v>
-      </c>
-      <c r="F110" s="4">
-        <v>1.5069999999999999</v>
-      </c>
-      <c r="G110" s="4">
-        <v>1.5309999999999999</v>
-      </c>
-      <c r="H110" s="4">
-        <v>1.127</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1.131</v>
-      </c>
-      <c r="J110" s="4">
-        <v>1.119</v>
-      </c>
-      <c r="K110" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="L110" s="4">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="M110" s="4">
-        <v>0.83799999999999997</v>
-      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
       <c r="O110" s="4"/>
       <c r="Q110" s="4"/>
       <c r="S110" s="4"/>
@@ -7461,39 +7299,17 @@
       <c r="W110" s="4"/>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C111" s="4">
-        <v>17.513000000000002</v>
-      </c>
-      <c r="D111" s="4">
-        <v>2.0870000000000002</v>
-      </c>
-      <c r="E111" s="4">
-        <v>1.722</v>
-      </c>
-      <c r="F111" s="4">
-        <v>1.534</v>
-      </c>
-      <c r="G111" s="4">
-        <v>1.6859999999999999</v>
-      </c>
-      <c r="H111" s="4">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1.046</v>
-      </c>
-      <c r="J111" s="4">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="K111" s="4">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="L111" s="4">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="M111" s="4">
-        <v>0.77600000000000002</v>
-      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
       <c r="O111" s="4"/>
       <c r="Q111" s="4"/>
       <c r="S111" s="4"/>
@@ -7501,39 +7317,17 @@
       <c r="W111" s="4"/>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C112" s="4">
-        <v>17.946000000000002</v>
-      </c>
-      <c r="D112" s="4">
-        <v>2.09</v>
-      </c>
-      <c r="E112" s="4">
-        <v>1.611</v>
-      </c>
-      <c r="F112" s="4">
-        <v>1.357</v>
-      </c>
-      <c r="G112" s="4">
-        <v>1.427</v>
-      </c>
-      <c r="H112" s="4">
-        <v>1.411</v>
-      </c>
-      <c r="I112" s="4">
-        <v>1.075</v>
-      </c>
-      <c r="J112" s="4">
-        <v>1.048</v>
-      </c>
-      <c r="K112" s="4">
-        <v>1.044</v>
-      </c>
-      <c r="L112" s="4">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="M112" s="4">
-        <v>0.83</v>
-      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
       <c r="O112" s="4"/>
       <c r="Q112" s="4"/>
       <c r="S112" s="4"/>
@@ -7541,39 +7335,17 @@
       <c r="W112" s="4"/>
     </row>
     <row r="113" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C113" s="4">
-        <v>15.801</v>
-      </c>
-      <c r="D113" s="4">
-        <v>2.0649999999999999</v>
-      </c>
-      <c r="E113" s="4">
-        <v>1.756</v>
-      </c>
-      <c r="F113" s="4">
-        <v>1.47</v>
-      </c>
-      <c r="G113" s="4">
-        <v>1.1819999999999999</v>
-      </c>
-      <c r="H113" s="4">
-        <v>1.264</v>
-      </c>
-      <c r="I113" s="4">
-        <v>1.9590000000000001</v>
-      </c>
-      <c r="J113" s="4">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="K113" s="4">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="L113" s="4">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="M113" s="4">
-        <v>0.91400000000000003</v>
-      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
       <c r="O113" s="4"/>
       <c r="Q113" s="4"/>
       <c r="S113" s="4"/>
@@ -7581,39 +7353,17 @@
       <c r="W113" s="4"/>
     </row>
     <row r="114" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C114" s="4">
-        <v>15.368</v>
-      </c>
-      <c r="D114" s="4">
-        <v>1.917</v>
-      </c>
-      <c r="E114" s="4">
-        <v>1.768</v>
-      </c>
-      <c r="F114" s="4">
-        <v>1.361</v>
-      </c>
-      <c r="G114" s="4">
-        <v>1.514</v>
-      </c>
-      <c r="H114" s="4">
-        <v>1.2529999999999999</v>
-      </c>
-      <c r="I114" s="4">
-        <v>1.113</v>
-      </c>
-      <c r="J114" s="4">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="K114" s="4">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="L114" s="4">
-        <v>1.2310000000000001</v>
-      </c>
-      <c r="M114" s="4">
-        <v>0.85199999999999998</v>
-      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
       <c r="O114" s="4"/>
       <c r="Q114" s="4"/>
       <c r="S114" s="4"/>
@@ -7621,39 +7371,17 @@
       <c r="W114" s="4"/>
     </row>
     <row r="115" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C115" s="4">
-        <v>18.376000000000001</v>
-      </c>
-      <c r="D115" s="4">
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="E115" s="4">
-        <v>2</v>
-      </c>
-      <c r="F115" s="4">
-        <v>1.4570000000000001</v>
-      </c>
-      <c r="G115" s="4">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="H115" s="4">
-        <v>1.236</v>
-      </c>
-      <c r="I115" s="4">
-        <v>1.109</v>
-      </c>
-      <c r="J115" s="4">
-        <v>1.107</v>
-      </c>
-      <c r="K115" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="L115" s="4">
-        <v>1.081</v>
-      </c>
-      <c r="M115" s="4">
-        <v>0.81499999999999995</v>
-      </c>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
       <c r="O115" s="4"/>
       <c r="Q115" s="4"/>
       <c r="S115" s="4"/>
@@ -7661,39 +7389,17 @@
       <c r="W115" s="4"/>
     </row>
     <row r="116" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C116" s="4">
-        <v>18.710999999999999</v>
-      </c>
-      <c r="D116" s="4">
-        <v>2.3450000000000002</v>
-      </c>
-      <c r="E116" s="4">
-        <v>1.494</v>
-      </c>
-      <c r="F116" s="4">
-        <v>1.585</v>
-      </c>
-      <c r="G116" s="4">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="H116" s="4">
-        <v>1.222</v>
-      </c>
-      <c r="I116" s="4">
-        <v>1.056</v>
-      </c>
-      <c r="J116" s="4">
-        <v>1.2649999999999999</v>
-      </c>
-      <c r="K116" s="4">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="L116" s="4">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="M116" s="4">
-        <v>0.83499999999999996</v>
-      </c>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
       <c r="O116" s="4"/>
       <c r="Q116" s="4"/>
       <c r="S116" s="4"/>
@@ -7701,39 +7407,17 @@
       <c r="W116" s="4"/>
     </row>
     <row r="117" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C117" s="4">
-        <v>19.216999999999999</v>
-      </c>
-      <c r="D117" s="4">
-        <v>2.198</v>
-      </c>
-      <c r="E117" s="4">
-        <v>1.673</v>
-      </c>
-      <c r="F117" s="4">
-        <v>1.629</v>
-      </c>
-      <c r="G117" s="4">
-        <v>1.3560000000000001</v>
-      </c>
-      <c r="H117" s="4">
-        <v>1.179</v>
-      </c>
-      <c r="I117" s="4">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="J117" s="4">
-        <v>1.206</v>
-      </c>
-      <c r="K117" s="4">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="L117" s="4">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="M117" s="4">
-        <v>0.83799999999999997</v>
-      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
       <c r="O117" s="4"/>
       <c r="Q117" s="4"/>
       <c r="S117" s="4"/>
@@ -7741,39 +7425,17 @@
       <c r="W117" s="4"/>
     </row>
     <row r="118" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C118" s="4">
-        <v>16.13</v>
-      </c>
-      <c r="D118" s="4">
-        <v>1.8779999999999999</v>
-      </c>
-      <c r="E118" s="4">
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="F118" s="4">
-        <v>1.847</v>
-      </c>
-      <c r="G118" s="4">
-        <v>1.2669999999999999</v>
-      </c>
-      <c r="H118" s="4">
-        <v>1.2070000000000001</v>
-      </c>
-      <c r="I118" s="4">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="J118" s="4">
-        <v>1.119</v>
-      </c>
-      <c r="K118" s="4">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="L118" s="4">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="M118" s="4">
-        <v>0.83299999999999996</v>
-      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
       <c r="O118" s="4"/>
       <c r="Q118" s="4"/>
       <c r="S118" s="4"/>
@@ -7781,39 +7443,17 @@
       <c r="W118" s="4"/>
     </row>
     <row r="119" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C119" s="4">
-        <v>17.285</v>
-      </c>
-      <c r="D119" s="4">
-        <v>2.419</v>
-      </c>
-      <c r="E119" s="4">
-        <v>1.9970000000000001</v>
-      </c>
-      <c r="F119" s="4">
-        <v>1.409</v>
-      </c>
-      <c r="G119" s="4">
-        <v>1.4039999999999999</v>
-      </c>
-      <c r="H119" s="4">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="I119" s="4">
-        <v>1.099</v>
-      </c>
-      <c r="J119" s="4">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="K119" s="4">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="L119" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="M119" s="4">
-        <v>0.84199999999999997</v>
-      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
       <c r="O119" s="4"/>
       <c r="Q119" s="4"/>
       <c r="S119" s="4"/>
@@ -7821,39 +7461,17 @@
       <c r="W119" s="4"/>
     </row>
     <row r="120" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C120" s="4">
-        <v>13.907</v>
-      </c>
-      <c r="D120" s="4">
-        <v>2.464</v>
-      </c>
-      <c r="E120" s="4">
-        <v>2.3119999999999998</v>
-      </c>
-      <c r="F120" s="4">
-        <v>1.895</v>
-      </c>
-      <c r="G120" s="4">
-        <v>1.3069999999999999</v>
-      </c>
-      <c r="H120" s="4">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="I120" s="4">
-        <v>1.194</v>
-      </c>
-      <c r="J120" s="4">
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="K120" s="4">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="L120" s="4">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="M120" s="4">
-        <v>0.92</v>
-      </c>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
       <c r="O120" s="4"/>
       <c r="Q120" s="4"/>
       <c r="S120" s="4"/>
@@ -7861,39 +7479,17 @@
       <c r="W120" s="4"/>
     </row>
     <row r="121" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C121" s="4">
-        <v>18.359000000000002</v>
-      </c>
-      <c r="D121" s="4">
-        <v>1.893</v>
-      </c>
-      <c r="E121" s="4">
-        <v>2.161</v>
-      </c>
-      <c r="F121" s="4">
-        <v>1.6619999999999999</v>
-      </c>
-      <c r="G121" s="4">
-        <v>1.7310000000000001</v>
-      </c>
-      <c r="H121" s="4">
-        <v>1.601</v>
-      </c>
-      <c r="I121" s="4">
-        <v>1.554</v>
-      </c>
-      <c r="J121" s="4">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="K121" s="4">
-        <v>1.1879999999999999</v>
-      </c>
-      <c r="L121" s="4">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="M121" s="4">
-        <v>0.91190000000000004</v>
-      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
       <c r="O121" s="4"/>
       <c r="Q121" s="4"/>
       <c r="S121" s="4"/>
@@ -7901,39 +7497,17 @@
       <c r="W121" s="4"/>
     </row>
     <row r="122" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C122" s="4">
-        <v>17.481999999999999</v>
-      </c>
-      <c r="D122" s="4">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="E122" s="4">
-        <v>1.804</v>
-      </c>
-      <c r="F122" s="4">
-        <v>1.7390000000000001</v>
-      </c>
-      <c r="G122" s="4">
-        <v>1.522</v>
-      </c>
-      <c r="H122" s="4">
-        <v>1.5669999999999999</v>
-      </c>
-      <c r="I122" s="4">
-        <v>1.056</v>
-      </c>
-      <c r="J122" s="4">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="K122" s="4">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="L122" s="4">
-        <v>0.874</v>
-      </c>
-      <c r="M122" s="4">
-        <v>0.749</v>
-      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
       <c r="O122" s="4"/>
       <c r="Q122" s="4"/>
       <c r="S122" s="4"/>
@@ -7941,39 +7515,17 @@
       <c r="W122" s="4"/>
     </row>
     <row r="123" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C123" s="4">
-        <v>18.584</v>
-      </c>
-      <c r="D123" s="4">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="E123" s="4">
-        <v>2.2829999999999999</v>
-      </c>
-      <c r="F123" s="4">
-        <v>2.0649999999999999</v>
-      </c>
-      <c r="G123" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="H123" s="4">
-        <v>1.4059999999999999</v>
-      </c>
-      <c r="I123" s="4">
-        <v>1.105</v>
-      </c>
-      <c r="J123" s="4">
-        <v>1.1990000000000001</v>
-      </c>
-      <c r="K123" s="4">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="L123" s="4">
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="M123" s="4">
-        <v>0.74</v>
-      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
       <c r="O123" s="4"/>
       <c r="Q123" s="4"/>
       <c r="S123" s="4"/>
@@ -7981,39 +7533,17 @@
       <c r="W123" s="4"/>
     </row>
     <row r="124" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C124" s="4">
-        <v>15.817</v>
-      </c>
-      <c r="D124" s="4">
-        <v>4.8719999999999999</v>
-      </c>
-      <c r="E124" s="4">
-        <v>2.1589999999999998</v>
-      </c>
-      <c r="F124" s="4">
-        <v>1.9390000000000001</v>
-      </c>
-      <c r="G124" s="4">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="H124" s="4">
-        <v>1.5129999999999999</v>
-      </c>
-      <c r="I124" s="4">
-        <v>1.0580000000000001</v>
-      </c>
-      <c r="J124" s="4">
-        <v>1.347</v>
-      </c>
-      <c r="K124" s="4">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="L124" s="4">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="M124" s="4">
-        <v>0.94799999999999995</v>
-      </c>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
       <c r="O124" s="4"/>
       <c r="Q124" s="4"/>
       <c r="S124" s="4"/>
@@ -8021,39 +7551,17 @@
       <c r="W124" s="4"/>
     </row>
     <row r="125" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C125" s="4">
-        <v>18.004999999999999</v>
-      </c>
-      <c r="D125" s="4">
-        <v>1.9770000000000001</v>
-      </c>
-      <c r="E125" s="4">
-        <v>2.0419999999999998</v>
-      </c>
-      <c r="F125" s="4">
-        <v>1.5289999999999999</v>
-      </c>
-      <c r="G125" s="4">
-        <v>2.3769999999999998</v>
-      </c>
-      <c r="H125" s="4">
-        <v>1.5429999999999999</v>
-      </c>
-      <c r="I125" s="4">
-        <v>1.085</v>
-      </c>
-      <c r="J125" s="4">
-        <v>1.43</v>
-      </c>
-      <c r="K125" s="4">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="L125" s="4">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="M125" s="4">
-        <v>1.0069999999999999</v>
-      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
       <c r="O125" s="4"/>
       <c r="Q125" s="4"/>
       <c r="S125" s="4"/>
@@ -8061,39 +7569,17 @@
       <c r="W125" s="4"/>
     </row>
     <row r="126" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C126" s="4">
-        <v>15.933999999999999</v>
-      </c>
-      <c r="D126" s="4">
-        <v>1.8680000000000001</v>
-      </c>
-      <c r="E126" s="4">
-        <v>1.89</v>
-      </c>
-      <c r="F126" s="4">
-        <v>3.3450000000000002</v>
-      </c>
-      <c r="G126" s="4">
-        <v>1.5660000000000001</v>
-      </c>
-      <c r="H126" s="4">
-        <v>1.64</v>
-      </c>
-      <c r="I126" s="4">
-        <v>1.321</v>
-      </c>
-      <c r="J126" s="4">
-        <v>1.125</v>
-      </c>
-      <c r="K126" s="4">
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="L126" s="4">
-        <v>0.86299999999999999</v>
-      </c>
-      <c r="M126" s="4">
-        <v>0.98799999999999999</v>
-      </c>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
       <c r="O126" s="4"/>
       <c r="Q126" s="4"/>
       <c r="S126" s="4"/>
@@ -8104,138 +7590,79 @@
       <c r="D131" s="3"/>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D132" s="4">
-        <v>15.766</v>
-      </c>
+      <c r="D132" s="4"/>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D133" s="4">
-        <v>13.648</v>
-      </c>
+      <c r="D133" s="4"/>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D134" s="4">
-        <v>14.827999999999999</v>
-      </c>
+      <c r="D134" s="4"/>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D135" s="4">
-        <v>16.600000000000001</v>
-      </c>
+      <c r="D135" s="4"/>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D136" s="4">
-        <v>17.513000000000002</v>
-      </c>
+      <c r="D136" s="4"/>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D137" s="4">
-        <v>17.946000000000002</v>
-      </c>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D138" s="4">
-        <v>15.801</v>
-      </c>
+      <c r="D138" s="4"/>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D139" s="4">
-        <v>15.368</v>
-      </c>
+      <c r="D139" s="4"/>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D140" s="4">
-        <v>18.376000000000001</v>
-      </c>
+      <c r="D140" s="4"/>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D141" s="4">
-        <v>18.710999999999999</v>
-      </c>
+      <c r="D141" s="4"/>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D142" s="4">
-        <v>19.216999999999999</v>
-      </c>
+      <c r="D142" s="4"/>
     </row>
     <row r="143" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="4">
-        <v>16.13</v>
-      </c>
+      <c r="D143" s="4"/>
     </row>
     <row r="144" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D144" s="4">
-        <v>17.285</v>
-      </c>
+      <c r="D144" s="4"/>
     </row>
     <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145" s="4">
-        <v>13.907</v>
-      </c>
+      <c r="D145" s="4"/>
     </row>
     <row r="146" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D146" s="4">
-        <v>18.359000000000002</v>
-      </c>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="4">
-        <v>17.481999999999999</v>
-      </c>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D148" s="4">
-        <v>18.584</v>
-      </c>
+      <c r="D148" s="4"/>
     </row>
     <row r="149" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D149" s="4">
-        <v>15.817</v>
-      </c>
+      <c r="D149" s="4"/>
     </row>
     <row r="150" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D150" s="4">
-        <v>18.004999999999999</v>
-      </c>
+      <c r="D150" s="4"/>
     </row>
     <row r="151" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D151" s="4">
-        <v>15.933999999999999</v>
-      </c>
+      <c r="D151" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="V105:W105"/>
-    <mergeCell ref="L105:M105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="R105:S105"/>
-    <mergeCell ref="T105:U105"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="B1:W1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="B26:W26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="B76:W76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
     <mergeCell ref="V52:W52"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="R27:S27"/>
@@ -8252,18 +7679,37 @@
     <mergeCell ref="P52:Q52"/>
     <mergeCell ref="R52:S52"/>
     <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="B76:W76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="B26:W26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="V105:W105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="T105:U105"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
